--- a/StudyTopics.xlsx
+++ b/StudyTopics.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyApplication\WORKSPACE\MyLearningDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyApplication\WORKSPACE\MyLearningDocs\MyLearningDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8595" xr2:uid="{A4853697-4DFF-44B9-BBFE-75956C8092A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8595" activeTab="2" xr2:uid="{A4853697-4DFF-44B9-BBFE-75956C8092A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Topics" sheetId="2" r:id="rId1"/>
+    <sheet name="Repeatable" sheetId="3" r:id="rId2"/>
+    <sheet name="New Topics" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>Spring Core</t>
   </si>
@@ -297,6 +299,9 @@
   </si>
   <si>
     <t>Microservice Architecture</t>
+  </si>
+  <si>
+    <t>Spring Flux</t>
   </si>
 </sst>
 </file>
@@ -737,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C21107-F461-442F-B317-32DCDC9A907C}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,4 +1598,1129 @@
     <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F79AF2-A674-43D8-829B-90265E78349F}">
+  <dimension ref="A1:D67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FF8466-9FEE-4D6B-96CB-CBB2CABA8889}">
+  <dimension ref="A1:D76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/StudyTopics.xlsx
+++ b/StudyTopics.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8595" activeTab="2" xr2:uid="{A4853697-4DFF-44B9-BBFE-75956C8092A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8595" activeTab="1" xr2:uid="{A4853697-4DFF-44B9-BBFE-75956C8092A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Topics" sheetId="2" r:id="rId1"/>
-    <sheet name="Repeatable" sheetId="3" r:id="rId2"/>
+    <sheet name="Repeatable Topics" sheetId="3" r:id="rId2"/>
     <sheet name="New Topics" sheetId="4" r:id="rId3"/>
+    <sheet name="Planning" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="93">
   <si>
     <t>Spring Core</t>
   </si>
@@ -302,6 +303,12 @@
   </si>
   <si>
     <t>Spring Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In Office :- New Topics, 
+At Home   :- Repeat all topics
+Note:- Move topics new to repeatable once done</t>
   </si>
 </sst>
 </file>
@@ -401,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -425,6 +432,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C21107-F461-442F-B317-32DCDC9A907C}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,55 +879,53 @@
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="13"/>
@@ -921,7 +933,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="13"/>
@@ -929,7 +941,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="13"/>
@@ -937,7 +949,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="13"/>
@@ -945,7 +957,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="13"/>
@@ -953,7 +965,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="13"/>
@@ -961,7 +973,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="13"/>
@@ -969,7 +981,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="8" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="13"/>
@@ -977,14 +989,16 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="13"/>
     </row>
@@ -995,54 +1009,52 @@
       <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="13"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="8" t="s">
-        <v>72</v>
+      <c r="B34" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="13"/>
@@ -1050,37 +1062,37 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="8" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="13"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="8" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="13"/>
@@ -1088,7 +1100,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="8" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="13"/>
@@ -1096,100 +1108,96 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="8" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="16"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="17" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="13"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="17"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="18"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="13"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="13"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="8" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="13"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1198,7 +1206,7 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="13"/>
@@ -1206,130 +1214,132 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="8" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="13"/>
+      <c r="A60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B63" s="8"/>
       <c r="C63" s="1"/>
       <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="13"/>
+      <c r="A64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="8" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="8"/>
+      <c r="B67" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="18"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="9" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="14"/>
-    </row>
-    <row r="70" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="9" t="s">
+      <c r="C73" s="2"/>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="14"/>
-    </row>
-    <row r="71" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="9" t="s">
+      <c r="C74" s="2"/>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="14"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="13"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="13"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
@@ -1339,7 +1349,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -1347,21 +1357,19 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="B78" s="8"/>
       <c r="C78" s="1"/>
       <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="13"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="18"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -1369,138 +1377,132 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="B81" s="8"/>
       <c r="C81" s="1"/>
       <c r="D81" s="13"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="13"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="13"/>
+      <c r="A83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="8" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="B85" s="8"/>
       <c r="C85" s="1"/>
       <c r="D85" s="13"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="13"/>
+      <c r="A86" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="15" t="s">
-        <v>83</v>
+      <c r="B87" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="C88" s="1"/>
       <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
+      <c r="A91" s="1"/>
+      <c r="B91" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="10" t="s">
-        <v>65</v>
+      <c r="B92" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="10" t="s">
-        <v>50</v>
+      <c r="B93" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="13"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="B94" s="15"/>
       <c r="C94" s="1"/>
       <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="B95" s="15"/>
       <c r="C95" s="1"/>
       <c r="D95" s="13"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="13"/>
+      <c r="A97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="13"/>
@@ -1508,7 +1510,7 @@
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="13"/>
@@ -1516,7 +1518,7 @@
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="13"/>
@@ -1524,7 +1526,7 @@
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="13"/>
@@ -1532,7 +1534,7 @@
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="13"/>
@@ -1540,7 +1542,7 @@
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="13"/>
@@ -1548,7 +1550,7 @@
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="13"/>
@@ -1556,7 +1558,7 @@
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="13"/>
@@ -1564,32 +1566,80 @@
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="8"/>
+      <c r="B107" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="C107" s="1"/>
       <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="7"/>
+      <c r="A108" s="1"/>
+      <c r="B108" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="11" t="s">
-        <v>68</v>
+      <c r="B109" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="13"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="13"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="13"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="13"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="13"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1602,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F79AF2-A674-43D8-829B-90265E78349F}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,78 +1988,78 @@
       <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="13"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="13"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="13"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="13"/>
+      <c r="A52" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -2018,34 +2068,32 @@
       <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="B55" s="8"/>
       <c r="C55" s="1"/>
       <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="13"/>
+      <c r="A56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
@@ -2054,10 +2102,12 @@
       <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="13"/>
+      <c r="A59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -2067,7 +2117,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="8"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="1"/>
       <c r="D61" s="13"/>
     </row>
@@ -2078,38 +2128,20 @@
       <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="13"/>
+      <c r="A63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="13"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="13"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2124,7 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FF8466-9FEE-4D6B-96CB-CBB2CABA8889}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -2723,4 +2755,186 @@
     <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F4DE2B-4B4A-4902-86E1-395EED92964C}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StudyTopics.xlsx
+++ b/StudyTopics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal data Vijay\Interview Planning 31Jan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyApplication\WORKSPACE\MyLearningDocs\MyLearningDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>Spring Core</t>
   </si>
@@ -146,9 +146,6 @@
     <t xml:space="preserve">Server:- </t>
   </si>
   <si>
-    <t>Project Archetecture</t>
-  </si>
-  <si>
     <t>Cloud Basics:-</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t xml:space="preserve">Association/Generalization/Aggregation </t>
   </si>
   <si>
-    <t>Intervie questions</t>
-  </si>
-  <si>
     <t>From each topics mentioned above</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
     <t>Feature 5, 6,7, 8, 9,10,11</t>
   </si>
   <si>
-    <t>Stream</t>
-  </si>
-  <si>
     <t>Time and Date API</t>
   </si>
   <si>
@@ -305,12 +296,6 @@
     <t>Jetty</t>
   </si>
   <si>
-    <t>Microservice features</t>
-  </si>
-  <si>
-    <t>Benefits</t>
-  </si>
-  <si>
     <t>Microservice Manifisto</t>
   </si>
   <si>
@@ -333,6 +318,24 @@
   </si>
   <si>
     <t>Security on Restful service</t>
+  </si>
+  <si>
+    <t>new topics</t>
+  </si>
+  <si>
+    <t>Stream api</t>
+  </si>
+  <si>
+    <t>Project Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microservice Architecture </t>
+  </si>
+  <si>
+    <t>Features, Benefits, characteristics etc</t>
+  </si>
+  <si>
+    <t>Interview questions</t>
   </si>
 </sst>
 </file>
@@ -470,13 +473,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C21107-F461-442F-B317-32DCDC9A907C}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,10 +814,10 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,7 +865,9 @@
       <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,15 +881,17 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -892,9 +899,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,7 +928,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="2"/>
@@ -980,7 +989,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1036,7 +1045,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1044,7 +1053,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1052,7 +1061,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="7" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1060,7 +1069,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1068,7 +1077,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1076,7 +1085,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1103,7 +1112,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1111,7 +1120,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1119,13 +1128,13 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="6"/>
@@ -1138,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -1146,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -1154,7 +1163,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -1173,7 +1182,7 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1181,7 +1190,7 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1205,7 +1214,7 @@
         <v>34</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1213,7 +1222,7 @@
     <row r="53" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1221,7 +1230,7 @@
     <row r="54" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1229,7 +1238,7 @@
     <row r="55" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1237,7 +1246,7 @@
     <row r="56" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1245,7 +1254,7 @@
     <row r="57" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1253,7 +1262,7 @@
     <row r="58" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -1261,7 +1270,7 @@
     <row r="59" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1373,7 +1382,7 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1392,7 +1401,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="2"/>
@@ -1401,17 +1410,17 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -1430,7 +1439,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="2"/>
@@ -1439,7 +1448,7 @@
     <row r="83" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -1458,7 +1467,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="2"/>
@@ -1478,7 +1487,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="2"/>
@@ -1487,7 +1496,7 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -1495,7 +1504,7 @@
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -1503,7 +1512,7 @@
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -1516,7 +1525,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="2"/>
@@ -1533,7 +1542,7 @@
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -1541,7 +1550,7 @@
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -1549,7 +1558,7 @@
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -1557,7 +1566,7 @@
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -1584,7 +1593,7 @@
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -1592,7 +1601,7 @@
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -1600,7 +1609,7 @@
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -1608,7 +1617,7 @@
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -1616,7 +1625,7 @@
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -1624,7 +1633,7 @@
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -1632,7 +1641,7 @@
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -1640,7 +1649,7 @@
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -1648,7 +1657,7 @@
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -1656,7 +1665,7 @@
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -1664,7 +1673,7 @@
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -1672,7 +1681,7 @@
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -1680,7 +1689,7 @@
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -1688,7 +1697,7 @@
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -1696,7 +1705,7 @@
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -1704,29 +1713,29 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="16" t="s">
-        <v>101</v>
+      <c r="B119" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="17"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -1739,7 +1748,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B123" s="13"/>
       <c r="C123" s="2"/>
@@ -1748,7 +1757,7 @@
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>

--- a/StudyTopics.xlsx
+++ b/StudyTopics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <t>Spring Core</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>Interview questions</t>
+  </si>
+  <si>
+    <t>Before/After Interview</t>
   </si>
 </sst>
 </file>
@@ -794,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C21107-F461-442F-B317-32DCDC9A907C}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B112" activeCellId="8" sqref="B91 B95 B96 B99 B116 B115 B114 B113 B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,10 +808,11 @@
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -819,8 +823,11 @@
       <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -828,7 +835,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>1</v>
@@ -836,7 +843,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
         <v>0</v>
@@ -844,7 +851,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
@@ -852,7 +859,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>4</v>
@@ -860,7 +867,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="15" t="s">
         <v>6</v>
@@ -870,7 +877,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>5</v>
@@ -878,7 +885,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="15" t="s">
         <v>64</v>
@@ -888,7 +895,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="7" t="s">
         <v>66</v>
@@ -896,7 +903,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="15" t="s">
         <v>71</v>
@@ -906,13 +913,13 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -920,13 +927,13 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>72</v>
       </c>
@@ -934,7 +941,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1"/>
